--- a/data/pca/factorExposure/factorExposure_2018-11-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.07553522763629399</v>
+        <v>-0.05227301008215657</v>
       </c>
       <c r="C2">
-        <v>-0.05089795563824244</v>
+        <v>0.003242177275222116</v>
       </c>
       <c r="D2">
-        <v>0.07446604669457922</v>
+        <v>-0.03371039721866605</v>
       </c>
       <c r="E2">
-        <v>-0.01044408080096411</v>
+        <v>0.0108397551442728</v>
       </c>
       <c r="F2">
-        <v>-0.1039773682402112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03768665707176123</v>
+      </c>
+      <c r="G2">
+        <v>-0.1002375139017405</v>
+      </c>
+      <c r="H2">
+        <v>0.07253935048577215</v>
+      </c>
+      <c r="I2">
+        <v>0.07001591450205878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1844984584062444</v>
+        <v>-0.1269712882411262</v>
       </c>
       <c r="C3">
-        <v>0.02771441453688422</v>
+        <v>-0.03888479838796914</v>
       </c>
       <c r="D3">
-        <v>0.1342872466538718</v>
+        <v>-0.06379503188929925</v>
       </c>
       <c r="E3">
-        <v>-0.04088450419769681</v>
+        <v>-0.009259682805549516</v>
       </c>
       <c r="F3">
-        <v>-0.3768387308624975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.01430055212751559</v>
+      </c>
+      <c r="G3">
+        <v>-0.3578474409213298</v>
+      </c>
+      <c r="H3">
+        <v>0.2742572344899556</v>
+      </c>
+      <c r="I3">
+        <v>0.05068852181462618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07205563938946032</v>
+        <v>-0.05864824767157209</v>
       </c>
       <c r="C4">
-        <v>-0.02381714968395029</v>
+        <v>-0.0001312686187422487</v>
       </c>
       <c r="D4">
-        <v>0.06077336126621</v>
+        <v>-0.0392627885378608</v>
       </c>
       <c r="E4">
-        <v>-0.05692191708527507</v>
+        <v>-0.02358388031509218</v>
       </c>
       <c r="F4">
-        <v>-0.05077114556020758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05725441970716674</v>
+      </c>
+      <c r="G4">
+        <v>-0.06294071232307256</v>
+      </c>
+      <c r="H4">
+        <v>0.02652393634899469</v>
+      </c>
+      <c r="I4">
+        <v>0.03997340415066997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.006035962196235038</v>
+        <v>-0.02848844061061499</v>
       </c>
       <c r="C6">
-        <v>-0.0004087315501572667</v>
+        <v>0.004893265157286025</v>
       </c>
       <c r="D6">
-        <v>-3.632951386924975e-05</v>
+        <v>-0.02009419778542181</v>
       </c>
       <c r="E6">
-        <v>0.006154977088735618</v>
+        <v>-0.008397127950747733</v>
       </c>
       <c r="F6">
-        <v>-0.003594146772716955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02068967627992014</v>
+      </c>
+      <c r="G6">
+        <v>-0.01733183625606786</v>
+      </c>
+      <c r="H6">
+        <v>-0.03146391321814428</v>
+      </c>
+      <c r="I6">
+        <v>-0.01065624056531395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03206012118803558</v>
+        <v>-0.02957089506933438</v>
       </c>
       <c r="C7">
-        <v>-0.01682390753951859</v>
+        <v>0.0006578203637158992</v>
       </c>
       <c r="D7">
-        <v>0.04749853209155454</v>
+        <v>-0.006681948323221811</v>
       </c>
       <c r="E7">
-        <v>-0.01273006642077262</v>
+        <v>-0.03812665135074993</v>
       </c>
       <c r="F7">
-        <v>-0.07627381739125137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.03105182188409006</v>
+      </c>
+      <c r="G7">
+        <v>-0.04551951979810013</v>
+      </c>
+      <c r="H7">
+        <v>0.04943696351496889</v>
+      </c>
+      <c r="I7">
+        <v>-0.0007901753515149179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03801469839682606</v>
+        <v>-0.01288721608088292</v>
       </c>
       <c r="C8">
-        <v>0.006092809242273025</v>
+        <v>-0.01188210894231602</v>
       </c>
       <c r="D8">
-        <v>0.04600463103974224</v>
+        <v>-0.03859391096602086</v>
       </c>
       <c r="E8">
-        <v>-0.04587139356185876</v>
+        <v>-0.0205152114280873</v>
       </c>
       <c r="F8">
-        <v>-0.070176485639207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02176107231393412</v>
+      </c>
+      <c r="G8">
+        <v>-0.06069055469708635</v>
+      </c>
+      <c r="H8">
+        <v>0.05430588422981902</v>
+      </c>
+      <c r="I8">
+        <v>0.03279035571958933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05771439464544678</v>
+        <v>-0.04896569677121766</v>
       </c>
       <c r="C9">
-        <v>-0.02416251552222307</v>
+        <v>-0.003452378786603759</v>
       </c>
       <c r="D9">
-        <v>0.04415698767257376</v>
+        <v>-0.02907285899994168</v>
       </c>
       <c r="E9">
-        <v>-0.06416631109627767</v>
+        <v>-0.02284389238321211</v>
       </c>
       <c r="F9">
-        <v>-0.04803871992256308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04367130373255083</v>
+      </c>
+      <c r="G9">
+        <v>-0.07166631261261128</v>
+      </c>
+      <c r="H9">
+        <v>0.0277361441572324</v>
+      </c>
+      <c r="I9">
+        <v>0.04230812850218402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0375088320516207</v>
+        <v>-0.06361859791088208</v>
       </c>
       <c r="C10">
-        <v>-0.08780882852176919</v>
+        <v>0.008153637754904469</v>
       </c>
       <c r="D10">
-        <v>-0.1085398742066036</v>
+        <v>0.1516483142646091</v>
       </c>
       <c r="E10">
-        <v>0.09031108233953705</v>
+        <v>0.05117246746781363</v>
       </c>
       <c r="F10">
-        <v>-0.05049588961131651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04859673090982104</v>
+      </c>
+      <c r="G10">
+        <v>-0.04803369978048631</v>
+      </c>
+      <c r="H10">
+        <v>0.03065999507195601</v>
+      </c>
+      <c r="I10">
+        <v>0.04103036498588986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.04784357448621604</v>
+        <v>-0.03957025668462853</v>
       </c>
       <c r="C11">
-        <v>-0.001884024215771638</v>
+        <v>-0.01489747685452623</v>
       </c>
       <c r="D11">
-        <v>0.03179239722823768</v>
+        <v>-0.0371481210943969</v>
       </c>
       <c r="E11">
-        <v>-0.01140165082667199</v>
+        <v>-0.003381364959141158</v>
       </c>
       <c r="F11">
-        <v>-0.04469426479065081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01677319820962833</v>
+      </c>
+      <c r="G11">
+        <v>-0.03385933857887862</v>
+      </c>
+      <c r="H11">
+        <v>0.00281768502317451</v>
+      </c>
+      <c r="I11">
+        <v>0.01678047972593472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0449148176668154</v>
+        <v>-0.03990779531008928</v>
       </c>
       <c r="C12">
-        <v>-0.002769078687430098</v>
+        <v>-0.006484033717256996</v>
       </c>
       <c r="D12">
-        <v>0.03034972531186946</v>
+        <v>-0.0329801107305308</v>
       </c>
       <c r="E12">
-        <v>-0.03235756319769937</v>
+        <v>-0.01361130012384108</v>
       </c>
       <c r="F12">
-        <v>-0.02831754783001897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02247788225757355</v>
+      </c>
+      <c r="G12">
+        <v>-0.01366072665847985</v>
+      </c>
+      <c r="H12">
+        <v>0.004732949577448284</v>
+      </c>
+      <c r="I12">
+        <v>0.006267392485782348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04570214971359558</v>
+        <v>-0.03828567182254217</v>
       </c>
       <c r="C13">
-        <v>-0.01425332965968712</v>
+        <v>0.007707860810660383</v>
       </c>
       <c r="D13">
-        <v>0.05064768209250879</v>
+        <v>-0.02849643997286346</v>
       </c>
       <c r="E13">
-        <v>0.01403153317317057</v>
+        <v>0.01083729180506589</v>
       </c>
       <c r="F13">
-        <v>-0.1088462153042292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01609917968478705</v>
+      </c>
+      <c r="G13">
+        <v>-0.08397357279751722</v>
+      </c>
+      <c r="H13">
+        <v>0.03722285430331654</v>
+      </c>
+      <c r="I13">
+        <v>0.03379622153790443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02291154508794744</v>
+        <v>-0.019797676842865</v>
       </c>
       <c r="C14">
-        <v>-0.01372669357425765</v>
+        <v>-0.00252096655591169</v>
       </c>
       <c r="D14">
-        <v>0.04185994767915311</v>
+        <v>-0.01481648341581127</v>
       </c>
       <c r="E14">
-        <v>-0.02415995467220972</v>
+        <v>-0.009975115477837301</v>
       </c>
       <c r="F14">
-        <v>-0.03827096660728097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0318133412299574</v>
+      </c>
+      <c r="G14">
+        <v>-0.03603617228622644</v>
+      </c>
+      <c r="H14">
+        <v>0.06467660473681094</v>
+      </c>
+      <c r="I14">
+        <v>0.01557261451080926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.03831051744348419</v>
+        <v>-0.03384151423451212</v>
       </c>
       <c r="C16">
-        <v>-0.002007986295344624</v>
+        <v>-0.0121550844003544</v>
       </c>
       <c r="D16">
-        <v>0.02873173797286603</v>
+        <v>-0.03253401987317702</v>
       </c>
       <c r="E16">
-        <v>-0.01379809184611346</v>
+        <v>-0.007672278884409307</v>
       </c>
       <c r="F16">
-        <v>-0.03403013621718206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02106633861361396</v>
+      </c>
+      <c r="G16">
+        <v>-0.02968696903147142</v>
+      </c>
+      <c r="H16">
+        <v>0.006874862227203043</v>
+      </c>
+      <c r="I16">
+        <v>0.006420536633581183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05718209042957254</v>
+        <v>-0.0448980298512291</v>
       </c>
       <c r="C19">
-        <v>0.006449430597586451</v>
+        <v>-0.004839383716092778</v>
       </c>
       <c r="D19">
-        <v>0.04257969020265145</v>
+        <v>-0.04124486475652474</v>
       </c>
       <c r="E19">
-        <v>-0.005102853276864339</v>
+        <v>-0.004444906589554425</v>
       </c>
       <c r="F19">
-        <v>-0.0844048169784017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02091660514374274</v>
+      </c>
+      <c r="G19">
+        <v>-0.08064881726943533</v>
+      </c>
+      <c r="H19">
+        <v>0.04831687519778348</v>
+      </c>
+      <c r="I19">
+        <v>0.02211341557710086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0153443706620381</v>
+        <v>-0.01124253664973036</v>
       </c>
       <c r="C20">
-        <v>-0.005294459818125936</v>
+        <v>0.001990385768721994</v>
       </c>
       <c r="D20">
-        <v>0.04579775575233685</v>
+        <v>-0.02089875112706803</v>
       </c>
       <c r="E20">
-        <v>-0.03366704038243965</v>
+        <v>-0.008963499372564403</v>
       </c>
       <c r="F20">
-        <v>-0.06408832090327217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02114960144080004</v>
+      </c>
+      <c r="G20">
+        <v>-0.05122158632032622</v>
+      </c>
+      <c r="H20">
+        <v>0.06129336272883968</v>
+      </c>
+      <c r="I20">
+        <v>0.01165323958084697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01739559476098081</v>
+        <v>-0.0270016152026576</v>
       </c>
       <c r="C21">
-        <v>0.01031526355089159</v>
+        <v>0.001826791930060097</v>
       </c>
       <c r="D21">
-        <v>0.0395180352181493</v>
+        <v>-0.02227851603403476</v>
       </c>
       <c r="E21">
-        <v>-0.01503604986707863</v>
+        <v>-0.01802808788467324</v>
       </c>
       <c r="F21">
-        <v>-0.07585517464197136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01366865381175076</v>
+      </c>
+      <c r="G21">
+        <v>-0.05660074504530222</v>
+      </c>
+      <c r="H21">
+        <v>0.02920570122585088</v>
+      </c>
+      <c r="I21">
+        <v>0.05609302037052991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03644624854655772</v>
+        <v>-0.03212972859248503</v>
       </c>
       <c r="C24">
-        <v>-0.001157652249425672</v>
+        <v>-0.009452946071347907</v>
       </c>
       <c r="D24">
-        <v>0.0258473057167081</v>
+        <v>-0.03027865153039208</v>
       </c>
       <c r="E24">
-        <v>-0.01420821776113629</v>
+        <v>-0.007733825767845455</v>
       </c>
       <c r="F24">
-        <v>-0.04567552261808135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01667571763427795</v>
+      </c>
+      <c r="G24">
+        <v>-0.03207220274204391</v>
+      </c>
+      <c r="H24">
+        <v>0.002773800236650953</v>
+      </c>
+      <c r="I24">
+        <v>0.01052770915737811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0394387899957616</v>
+        <v>-0.04072859976126605</v>
       </c>
       <c r="C25">
-        <v>-0.00328300701307411</v>
+        <v>-0.004962029517630968</v>
       </c>
       <c r="D25">
-        <v>0.02984321029481605</v>
+        <v>-0.03153798511143547</v>
       </c>
       <c r="E25">
-        <v>-0.02150570473476415</v>
+        <v>-0.00779832961691891</v>
       </c>
       <c r="F25">
-        <v>-0.05045684287285297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02033098741698385</v>
+      </c>
+      <c r="G25">
+        <v>-0.04302339149667136</v>
+      </c>
+      <c r="H25">
+        <v>-0.0009181644144155939</v>
+      </c>
+      <c r="I25">
+        <v>0.01726035562319041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02045580177694769</v>
+        <v>-0.01669518371677897</v>
       </c>
       <c r="C26">
-        <v>0.005352323715193789</v>
+        <v>0.0158943862543987</v>
       </c>
       <c r="D26">
-        <v>0.05113839001225506</v>
+        <v>-0.02747033576499105</v>
       </c>
       <c r="E26">
-        <v>-0.001146984973428054</v>
+        <v>-0.0015656571677327</v>
       </c>
       <c r="F26">
-        <v>-0.04381956025194874</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008639545952868427</v>
+      </c>
+      <c r="G26">
+        <v>-0.04184750344659549</v>
+      </c>
+      <c r="H26">
+        <v>0.03803798691575453</v>
+      </c>
+      <c r="I26">
+        <v>0.01332744031389689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1018868069046474</v>
+        <v>-0.05647092586490169</v>
       </c>
       <c r="C27">
-        <v>-0.03390237826615931</v>
+        <v>-0.01773124529858136</v>
       </c>
       <c r="D27">
-        <v>0.03802473088865059</v>
+        <v>-0.01610178658409695</v>
       </c>
       <c r="E27">
-        <v>-0.03835746916969214</v>
+        <v>-0.004474316919320597</v>
       </c>
       <c r="F27">
-        <v>-0.05335199006631147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02606064048872998</v>
+      </c>
+      <c r="G27">
+        <v>-0.03989698971442465</v>
+      </c>
+      <c r="H27">
+        <v>0.03467485909104044</v>
+      </c>
+      <c r="I27">
+        <v>0.01921511229217072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.05716227633889813</v>
+        <v>-0.09497560355231752</v>
       </c>
       <c r="C28">
-        <v>-0.1143122535086731</v>
+        <v>0.02403634873317216</v>
       </c>
       <c r="D28">
-        <v>-0.1807915175999422</v>
+        <v>0.2311614842427802</v>
       </c>
       <c r="E28">
-        <v>0.1263998888693404</v>
+        <v>0.06968614245653944</v>
       </c>
       <c r="F28">
-        <v>-0.01870059300366186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.07274430515418369</v>
+      </c>
+      <c r="G28">
+        <v>-0.02627260334639089</v>
+      </c>
+      <c r="H28">
+        <v>0.04862783448365732</v>
+      </c>
+      <c r="I28">
+        <v>0.03325509387419234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02557956174171491</v>
+        <v>-0.0221104353028395</v>
       </c>
       <c r="C29">
-        <v>-0.008911727189743318</v>
+        <v>-0.002823382211676698</v>
       </c>
       <c r="D29">
-        <v>0.0410452653584189</v>
+        <v>-0.01542366005052455</v>
       </c>
       <c r="E29">
-        <v>-0.03385489996740438</v>
+        <v>-0.01156871023183283</v>
       </c>
       <c r="F29">
-        <v>-0.02443735067616119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03326064642207207</v>
+      </c>
+      <c r="G29">
+        <v>-0.03106970711300979</v>
+      </c>
+      <c r="H29">
+        <v>0.06214005246220013</v>
+      </c>
+      <c r="I29">
+        <v>0.01651367909751036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.09554504315067008</v>
+        <v>-0.07928399892403468</v>
       </c>
       <c r="C30">
-        <v>-0.04464210760208332</v>
+        <v>0.005802074590677896</v>
       </c>
       <c r="D30">
-        <v>0.06952714166876024</v>
+        <v>-0.06443858672605651</v>
       </c>
       <c r="E30">
-        <v>-0.02161977182757233</v>
+        <v>0.02754109352662766</v>
       </c>
       <c r="F30">
-        <v>-0.101622582213241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.05985712509275823</v>
+      </c>
+      <c r="G30">
+        <v>-0.09373996186223854</v>
+      </c>
+      <c r="H30">
+        <v>0.01614037853479899</v>
+      </c>
+      <c r="I30">
+        <v>0.0004874556993667669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05652467014811097</v>
+        <v>-0.0535805506994076</v>
       </c>
       <c r="C31">
-        <v>-0.01606729388628391</v>
+        <v>-0.01621500400681008</v>
       </c>
       <c r="D31">
-        <v>0.03555556253417742</v>
+        <v>-0.01570657218348761</v>
       </c>
       <c r="E31">
-        <v>0.0227213474715145</v>
+        <v>0.005344191246223919</v>
       </c>
       <c r="F31">
-        <v>0.01394293377323029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01735776910225539</v>
+      </c>
+      <c r="G31">
+        <v>0.0009186446644128235</v>
+      </c>
+      <c r="H31">
+        <v>0.05754918009712947</v>
+      </c>
+      <c r="I31">
+        <v>0.04308571933919758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05083242845364203</v>
+        <v>-0.02653200150499046</v>
       </c>
       <c r="C32">
-        <v>-0.01079072109463099</v>
+        <v>-0.02484151024812344</v>
       </c>
       <c r="D32">
-        <v>0.05491391551207173</v>
+        <v>-0.02875732517562323</v>
       </c>
       <c r="E32">
-        <v>-0.04054490479044397</v>
+        <v>-0.0203545192907437</v>
       </c>
       <c r="F32">
-        <v>-0.07666080114732092</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04805982084932036</v>
+      </c>
+      <c r="G32">
+        <v>-0.07942704517578618</v>
+      </c>
+      <c r="H32">
+        <v>0.005402419371401092</v>
+      </c>
+      <c r="I32">
+        <v>0.005877634896927142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.05196359466515584</v>
+        <v>-0.04388537945933352</v>
       </c>
       <c r="C33">
-        <v>0.00732256885427209</v>
+        <v>-0.009902906096388759</v>
       </c>
       <c r="D33">
-        <v>0.0750905573305445</v>
+        <v>-0.05267776102725442</v>
       </c>
       <c r="E33">
-        <v>-0.01729322689268888</v>
+        <v>0.008839048421597499</v>
       </c>
       <c r="F33">
-        <v>-0.0707189245188973</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01352190560893677</v>
+      </c>
+      <c r="G33">
+        <v>-0.06541502303539062</v>
+      </c>
+      <c r="H33">
+        <v>0.04876759292182675</v>
+      </c>
+      <c r="I33">
+        <v>0.03599960924887421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.03993739076200927</v>
+        <v>-0.03476009749807615</v>
       </c>
       <c r="C34">
-        <v>-0.008581705964358404</v>
+        <v>-0.01879529862959755</v>
       </c>
       <c r="D34">
-        <v>0.03318635597594287</v>
+        <v>-0.02996483792688031</v>
       </c>
       <c r="E34">
-        <v>-0.02004592782149968</v>
+        <v>-0.01223605977863514</v>
       </c>
       <c r="F34">
-        <v>-0.04213144468902941</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02693345389684741</v>
+      </c>
+      <c r="G34">
+        <v>-0.03665049207359374</v>
+      </c>
+      <c r="H34">
+        <v>0.005122905701364902</v>
+      </c>
+      <c r="I34">
+        <v>0.01331684020851981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01622751065190675</v>
+        <v>-0.01900982650602736</v>
       </c>
       <c r="C36">
-        <v>-0.01310659656161904</v>
+        <v>0.004910732659485076</v>
       </c>
       <c r="D36">
-        <v>0.01065623616177857</v>
+        <v>-0.0008720673780241103</v>
       </c>
       <c r="E36">
-        <v>-0.009477242242292086</v>
+        <v>-0.003053313304357768</v>
       </c>
       <c r="F36">
-        <v>-0.02455393949324729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01363603788968502</v>
+      </c>
+      <c r="G36">
+        <v>-0.02424739911631553</v>
+      </c>
+      <c r="H36">
+        <v>0.03527536974563489</v>
+      </c>
+      <c r="I36">
+        <v>0.02333440443660498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01484252432250231</v>
+        <v>-0.01985161323097807</v>
       </c>
       <c r="C38">
-        <v>-0.007275309594325456</v>
+        <v>-0.0135488390160604</v>
       </c>
       <c r="D38">
-        <v>-0.008775957136861353</v>
+        <v>-0.001937398586145927</v>
       </c>
       <c r="E38">
-        <v>-0.006094372435168686</v>
+        <v>-0.005118274340001591</v>
       </c>
       <c r="F38">
-        <v>-0.01909309214255084</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.002641094623073379</v>
+      </c>
+      <c r="G38">
+        <v>-0.04046524452890565</v>
+      </c>
+      <c r="H38">
+        <v>0.02807181101425808</v>
+      </c>
+      <c r="I38">
+        <v>0.03125859500441156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.05400264500888432</v>
+        <v>-0.04040769824338134</v>
       </c>
       <c r="C39">
-        <v>-0.006911249406223043</v>
+        <v>-0.0111561301988829</v>
       </c>
       <c r="D39">
-        <v>0.0498690034404328</v>
+        <v>-0.05326610068134671</v>
       </c>
       <c r="E39">
-        <v>-0.009816709290822375</v>
+        <v>-0.006942473994808079</v>
       </c>
       <c r="F39">
-        <v>-0.03265446227130699</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.03238299393857347</v>
+      </c>
+      <c r="G39">
+        <v>-0.0527341066559963</v>
+      </c>
+      <c r="H39">
+        <v>-0.004064277716541024</v>
+      </c>
+      <c r="I39">
+        <v>0.02458854594404199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05345160225496009</v>
+        <v>-0.04371315008327846</v>
       </c>
       <c r="C40">
-        <v>-0.0265328338025608</v>
+        <v>-0.01072176455894803</v>
       </c>
       <c r="D40">
-        <v>0.0774192666591709</v>
+        <v>-0.04362385146189585</v>
       </c>
       <c r="E40">
-        <v>0.008792058500074858</v>
+        <v>0.01469803426583759</v>
       </c>
       <c r="F40">
-        <v>-0.08139864322568524</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03394153945107529</v>
+      </c>
+      <c r="G40">
+        <v>-0.07216905236970679</v>
+      </c>
+      <c r="H40">
+        <v>0.03670333263952774</v>
+      </c>
+      <c r="I40">
+        <v>0.0340095643540152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01070275329711662</v>
+        <v>-0.0006975188661599124</v>
       </c>
       <c r="C41">
-        <v>0.004623847618057932</v>
+        <v>0.0003171361922298129</v>
       </c>
       <c r="D41">
-        <v>0.02662566730622399</v>
+        <v>-0.002416855098421382</v>
       </c>
       <c r="E41">
-        <v>-0.02037953060355448</v>
+        <v>-0.001275381724342628</v>
       </c>
       <c r="F41">
-        <v>0.0165087277360046</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006426911628355808</v>
+      </c>
+      <c r="G41">
+        <v>-0.0009179287371076097</v>
+      </c>
+      <c r="H41">
+        <v>0.05413665401718601</v>
+      </c>
+      <c r="I41">
+        <v>0.03651918307025417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.3340324688464224</v>
+        <v>-0.2415729694798912</v>
       </c>
       <c r="C42">
-        <v>0.8653096110518473</v>
+        <v>0.06109665541335966</v>
       </c>
       <c r="D42">
-        <v>-0.174577478045835</v>
+        <v>-0.3915234160814493</v>
       </c>
       <c r="E42">
-        <v>0.2751672510043713</v>
+        <v>-0.07233981119540227</v>
       </c>
       <c r="F42">
-        <v>0.05047317139595278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8563724454992312</v>
+      </c>
+      <c r="G42">
+        <v>0.1412115332844369</v>
+      </c>
+      <c r="H42">
+        <v>-0.01198046406048642</v>
+      </c>
+      <c r="I42">
+        <v>0.0004992018202916894</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.00984513297984283</v>
+        <v>-0.003143426264561691</v>
       </c>
       <c r="C43">
-        <v>0.003023577930431006</v>
+        <v>0.006709712664683625</v>
       </c>
       <c r="D43">
-        <v>0.02692393589984077</v>
+        <v>-0.005526293166728371</v>
       </c>
       <c r="E43">
-        <v>-0.007876158789973848</v>
+        <v>0.001432798455999675</v>
       </c>
       <c r="F43">
-        <v>-0.02494927126910019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004644375564000826</v>
+      </c>
+      <c r="G43">
+        <v>-0.01463248365547921</v>
+      </c>
+      <c r="H43">
+        <v>0.04697539791133799</v>
+      </c>
+      <c r="I43">
+        <v>0.02028688434548216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02778450871195363</v>
+        <v>-0.01669424613678519</v>
       </c>
       <c r="C44">
-        <v>0.005519339222918081</v>
+        <v>-0.006237809301423233</v>
       </c>
       <c r="D44">
-        <v>0.06139797263830443</v>
+        <v>-0.03084393224376804</v>
       </c>
       <c r="E44">
-        <v>-0.02325290476263775</v>
+        <v>-0.01096926693313178</v>
       </c>
       <c r="F44">
-        <v>-0.1173716176246891</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01158603544064933</v>
+      </c>
+      <c r="G44">
+        <v>-0.1096268795043224</v>
+      </c>
+      <c r="H44">
+        <v>0.09905118284935467</v>
+      </c>
+      <c r="I44">
+        <v>0.04603069568487669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02983582877878074</v>
+        <v>-0.02231467400742335</v>
       </c>
       <c r="C46">
-        <v>-0.00853871510961308</v>
+        <v>-0.001984162318449451</v>
       </c>
       <c r="D46">
-        <v>0.05401244373444209</v>
+        <v>-0.03093693320215982</v>
       </c>
       <c r="E46">
-        <v>-0.0218305753456537</v>
+        <v>-0.002611601489059336</v>
       </c>
       <c r="F46">
-        <v>-0.01523110771404927</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03784694593329063</v>
+      </c>
+      <c r="G46">
+        <v>-0.04255431771646051</v>
+      </c>
+      <c r="H46">
+        <v>0.06529996354098602</v>
+      </c>
+      <c r="I46">
+        <v>0.01705245028526338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08628486709400207</v>
+        <v>-0.07950857318273988</v>
       </c>
       <c r="C47">
-        <v>-0.02205186811096936</v>
+        <v>-0.02766257514646</v>
       </c>
       <c r="D47">
-        <v>0.03696975060260205</v>
+        <v>-0.02270398052754848</v>
       </c>
       <c r="E47">
-        <v>-0.02050981409265147</v>
+        <v>-0.0006287480823163607</v>
       </c>
       <c r="F47">
-        <v>0.02821249779301081</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02940774765485566</v>
+      </c>
+      <c r="G47">
+        <v>0.02592510608578096</v>
+      </c>
+      <c r="H47">
+        <v>0.07054987185396666</v>
+      </c>
+      <c r="I47">
+        <v>0.02740633242510327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.0119703105706562</v>
+        <v>-0.01930263872662358</v>
       </c>
       <c r="C48">
-        <v>-0.0078265803430394</v>
+        <v>-0.006249584430742383</v>
       </c>
       <c r="D48">
-        <v>0.03185147995166677</v>
+        <v>-0.01046257754799566</v>
       </c>
       <c r="E48">
-        <v>-0.01401357749038739</v>
+        <v>-0.002702351494243065</v>
       </c>
       <c r="F48">
-        <v>-0.03580996032170508</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01607777799404351</v>
+      </c>
+      <c r="G48">
+        <v>-0.0268251946363306</v>
+      </c>
+      <c r="H48">
+        <v>0.03136803453422066</v>
+      </c>
+      <c r="I48">
+        <v>0.01599535823251684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08440841292259822</v>
+        <v>-0.07756022025383216</v>
       </c>
       <c r="C50">
-        <v>-0.002734530916581655</v>
+        <v>-0.02650811924383089</v>
       </c>
       <c r="D50">
-        <v>0.0395140969391992</v>
+        <v>-0.03501969803225711</v>
       </c>
       <c r="E50">
-        <v>-0.005493493435907717</v>
+        <v>-0.01795497513243348</v>
       </c>
       <c r="F50">
-        <v>0.01548053300164051</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01888520242731519</v>
+      </c>
+      <c r="G50">
+        <v>0.00893188302779214</v>
+      </c>
+      <c r="H50">
+        <v>0.0513233070860051</v>
+      </c>
+      <c r="I50">
+        <v>-0.005603785506424612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.04439479261260212</v>
+        <v>-0.03067997810502247</v>
       </c>
       <c r="C51">
-        <v>0.0003328459974306011</v>
+        <v>0.003981493412787872</v>
       </c>
       <c r="D51">
-        <v>0.02700027606428069</v>
+        <v>-0.00234804330053236</v>
       </c>
       <c r="E51">
-        <v>0.03461417225448269</v>
+        <v>0.008886506077155101</v>
       </c>
       <c r="F51">
-        <v>-0.0722531191431961</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.009714115067570342</v>
+      </c>
+      <c r="G51">
+        <v>-0.08057353433724614</v>
+      </c>
+      <c r="H51">
+        <v>0.0868106910282431</v>
+      </c>
+      <c r="I51">
+        <v>0.05265841323691073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1215170221138232</v>
+        <v>-0.1078772036737781</v>
       </c>
       <c r="C53">
-        <v>-0.02315442075086073</v>
+        <v>-0.03584680668439825</v>
       </c>
       <c r="D53">
-        <v>0.06808894329597028</v>
+        <v>-0.04862786080735849</v>
       </c>
       <c r="E53">
-        <v>-0.01429652477549766</v>
+        <v>-0.004590969911925489</v>
       </c>
       <c r="F53">
-        <v>0.07318058129230283</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05263795361460721</v>
+      </c>
+      <c r="G53">
+        <v>0.05817576773222053</v>
+      </c>
+      <c r="H53">
+        <v>0.02416924837880394</v>
+      </c>
+      <c r="I53">
+        <v>0.01994710929304939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02239507528259464</v>
+        <v>-0.02470601819786984</v>
       </c>
       <c r="C54">
-        <v>-0.02202882178844255</v>
+        <v>-0.01131992432163689</v>
       </c>
       <c r="D54">
-        <v>0.02826816386399765</v>
+        <v>-0.0002989341228302169</v>
       </c>
       <c r="E54">
-        <v>-0.02067096215068416</v>
+        <v>-0.003538583857957671</v>
       </c>
       <c r="F54">
-        <v>-0.03257674507628092</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03090905205928624</v>
+      </c>
+      <c r="G54">
+        <v>-0.02786614290834574</v>
+      </c>
+      <c r="H54">
+        <v>0.06180156380161875</v>
+      </c>
+      <c r="I54">
+        <v>0.02691523559809478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1067872797965222</v>
+        <v>-0.09212051488797776</v>
       </c>
       <c r="C55">
-        <v>-0.02235230643635869</v>
+        <v>-0.03803250363257132</v>
       </c>
       <c r="D55">
-        <v>0.02130424781434826</v>
+        <v>-0.03846476905234625</v>
       </c>
       <c r="E55">
-        <v>-0.04587421319503007</v>
+        <v>-0.01858619591036629</v>
       </c>
       <c r="F55">
-        <v>0.05172788798405699</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04338798609530865</v>
+      </c>
+      <c r="G55">
+        <v>0.05332166864978295</v>
+      </c>
+      <c r="H55">
+        <v>0.02869821734564757</v>
+      </c>
+      <c r="I55">
+        <v>-0.01417709909405719</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1422617678819907</v>
+        <v>-0.1402386870698859</v>
       </c>
       <c r="C56">
-        <v>-0.06165116274532913</v>
+        <v>-0.05340692665345453</v>
       </c>
       <c r="D56">
-        <v>0.04733479718078124</v>
+        <v>-0.03806393730888905</v>
       </c>
       <c r="E56">
-        <v>-0.04593555155194844</v>
+        <v>-0.006546759813956843</v>
       </c>
       <c r="F56">
-        <v>0.1189854592165617</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07744638458967178</v>
+      </c>
+      <c r="G56">
+        <v>0.1034558072024237</v>
+      </c>
+      <c r="H56">
+        <v>-0.01191034200697583</v>
+      </c>
+      <c r="I56">
+        <v>-0.01599062553533939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06457612888361597</v>
+        <v>-0.05671871434785538</v>
       </c>
       <c r="C57">
-        <v>-0.01525351096927477</v>
+        <v>0.006243400398389966</v>
       </c>
       <c r="D57">
-        <v>0.05018754044646478</v>
+        <v>-0.03363411989402922</v>
       </c>
       <c r="E57">
-        <v>0.00942752583201838</v>
+        <v>0.009742894891608716</v>
       </c>
       <c r="F57">
-        <v>-0.07131331840371627</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01023449953408359</v>
+      </c>
+      <c r="G57">
+        <v>-0.05967289096574102</v>
+      </c>
+      <c r="H57">
+        <v>0.03097525531931273</v>
+      </c>
+      <c r="I57">
+        <v>0.0213898417821627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2142408946365547</v>
+        <v>-0.1849714077182079</v>
       </c>
       <c r="C58">
-        <v>-0.02034472544208938</v>
+        <v>-0.06277037245870347</v>
       </c>
       <c r="D58">
-        <v>0.1379477981544521</v>
+        <v>-0.1383264270346917</v>
       </c>
       <c r="E58">
-        <v>-0.008839153861055268</v>
+        <v>0.06935866767204074</v>
       </c>
       <c r="F58">
-        <v>-0.2764091849745961</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.006743786950113634</v>
+      </c>
+      <c r="G58">
+        <v>-0.3923803072710706</v>
+      </c>
+      <c r="H58">
+        <v>0.3685461040584107</v>
+      </c>
+      <c r="I58">
+        <v>-0.3894884139548854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.0551119673038022</v>
+        <v>-0.09665848348855997</v>
       </c>
       <c r="C59">
-        <v>-0.125249705606714</v>
+        <v>0.02343493588041076</v>
       </c>
       <c r="D59">
-        <v>-0.1246807396523476</v>
+        <v>0.1955675516128862</v>
       </c>
       <c r="E59">
-        <v>0.07650392869904231</v>
+        <v>0.07566969505291822</v>
       </c>
       <c r="F59">
-        <v>-0.02122540086237237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0294217003023979</v>
+      </c>
+      <c r="G59">
+        <v>-0.04668345380926776</v>
+      </c>
+      <c r="H59">
+        <v>0.023587647181577</v>
+      </c>
+      <c r="I59">
+        <v>0.02361307304601478</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1762728228365549</v>
+        <v>-0.1942235384027696</v>
       </c>
       <c r="C60">
-        <v>-0.07701635182836471</v>
+        <v>-0.02002337479366149</v>
       </c>
       <c r="D60">
-        <v>0.01785961437818785</v>
+        <v>0.004649452842097848</v>
       </c>
       <c r="E60">
-        <v>0.07972052759968243</v>
+        <v>0.0670366354612678</v>
       </c>
       <c r="F60">
-        <v>-0.145181018792669</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.0282575266587995</v>
+      </c>
+      <c r="G60">
+        <v>-0.2055808000146288</v>
+      </c>
+      <c r="H60">
+        <v>-0.3584962326606243</v>
+      </c>
+      <c r="I60">
+        <v>0.05529651983741817</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03191717793556698</v>
+        <v>-0.03348000311996134</v>
       </c>
       <c r="C61">
-        <v>-0.006147330897625255</v>
+        <v>-0.01497970520221321</v>
       </c>
       <c r="D61">
-        <v>0.02116921942176283</v>
+        <v>-0.03264531663961494</v>
       </c>
       <c r="E61">
-        <v>-0.01848385718286045</v>
+        <v>-0.008693045752018156</v>
       </c>
       <c r="F61">
-        <v>-0.03454963280338497</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02647073470842358</v>
+      </c>
+      <c r="G61">
+        <v>-0.03644254680958244</v>
+      </c>
+      <c r="H61">
+        <v>-0.01297035606421904</v>
+      </c>
+      <c r="I61">
+        <v>0.01567561892869543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.02946824182058508</v>
+        <v>-0.02524067259353755</v>
       </c>
       <c r="C63">
-        <v>-0.01707671508553329</v>
+        <v>-0.004702597349987465</v>
       </c>
       <c r="D63">
-        <v>0.04439600670912168</v>
+        <v>-0.02365199483233183</v>
       </c>
       <c r="E63">
-        <v>-0.01833917932549836</v>
+        <v>-0.00412664971651179</v>
       </c>
       <c r="F63">
-        <v>-0.04364183961307794</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02540812580053064</v>
+      </c>
+      <c r="G63">
+        <v>-0.02479884668772657</v>
+      </c>
+      <c r="H63">
+        <v>0.04951687446190613</v>
+      </c>
+      <c r="I63">
+        <v>-4.902289532085629e-06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0502227710670216</v>
+        <v>-0.04907563485025222</v>
       </c>
       <c r="C64">
-        <v>-0.005028284684008505</v>
+        <v>-0.01381067354038115</v>
       </c>
       <c r="D64">
-        <v>0.04718444240151271</v>
+        <v>-0.03808265203271247</v>
       </c>
       <c r="E64">
-        <v>-0.05879755925359949</v>
+        <v>-0.01811580541138393</v>
       </c>
       <c r="F64">
-        <v>-0.03820890706726765</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03029933689620886</v>
+      </c>
+      <c r="G64">
+        <v>-0.03475508658394495</v>
+      </c>
+      <c r="H64">
+        <v>0.03439521027829228</v>
+      </c>
+      <c r="I64">
+        <v>0.0625944183847347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.005946509801584616</v>
+        <v>-0.0323668449621237</v>
       </c>
       <c r="C65">
-        <v>0.0002849281535632244</v>
+        <v>0.006156937596052121</v>
       </c>
       <c r="D65">
-        <v>-0.0009210149263530752</v>
+        <v>-0.02081139856763458</v>
       </c>
       <c r="E65">
-        <v>0.006943348263241185</v>
+        <v>-0.008552780446871537</v>
       </c>
       <c r="F65">
-        <v>-0.004277837603279742</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02110158538666466</v>
+      </c>
+      <c r="G65">
+        <v>-0.01452211894399449</v>
+      </c>
+      <c r="H65">
+        <v>-0.03615654119789327</v>
+      </c>
+      <c r="I65">
+        <v>-0.007462694143096605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.05230084491243944</v>
+        <v>-0.04826972919543062</v>
       </c>
       <c r="C66">
-        <v>-0.02003402033080378</v>
+        <v>-0.0182409587469134</v>
       </c>
       <c r="D66">
-        <v>0.06200406420606677</v>
+        <v>-0.06013543329822514</v>
       </c>
       <c r="E66">
-        <v>-0.02816989883254003</v>
+        <v>-0.0005296927577029445</v>
       </c>
       <c r="F66">
-        <v>-0.0780932627706952</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.05887152437618708</v>
+      </c>
+      <c r="G66">
+        <v>-0.06538226626779803</v>
+      </c>
+      <c r="H66">
+        <v>-0.01644976488529415</v>
+      </c>
+      <c r="I66">
+        <v>0.01378373117823171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0328664549720202</v>
+        <v>-0.03981926123981772</v>
       </c>
       <c r="C67">
-        <v>-0.01808725191025414</v>
+        <v>-0.01006353088054132</v>
       </c>
       <c r="D67">
-        <v>-0.01860097162786429</v>
+        <v>0.005820286819206751</v>
       </c>
       <c r="E67">
-        <v>0.007769334649390869</v>
+        <v>0.001713730482426126</v>
       </c>
       <c r="F67">
-        <v>-0.02497077930427489</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.005891206919007076</v>
+      </c>
+      <c r="G67">
+        <v>-0.03447754868696497</v>
+      </c>
+      <c r="H67">
+        <v>0.006924128091620769</v>
+      </c>
+      <c r="I67">
+        <v>0.04743424390572529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.06866803882886822</v>
+        <v>-0.102172553356456</v>
       </c>
       <c r="C68">
-        <v>-0.1202730783583171</v>
+        <v>0.04712314805472119</v>
       </c>
       <c r="D68">
-        <v>-0.1815811778574392</v>
+        <v>0.2135484070287003</v>
       </c>
       <c r="E68">
-        <v>0.1176487672786514</v>
+        <v>0.07473119928444263</v>
       </c>
       <c r="F68">
-        <v>0.0163859502418299</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05961518605336003</v>
+      </c>
+      <c r="G68">
+        <v>-0.003125859691858576</v>
+      </c>
+      <c r="H68">
+        <v>0.04050089679830166</v>
+      </c>
+      <c r="I68">
+        <v>-0.01633047670604236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.0711702562840367</v>
+        <v>-0.06652478225786161</v>
       </c>
       <c r="C69">
-        <v>-0.02738979085511119</v>
+        <v>-0.02556073302760008</v>
       </c>
       <c r="D69">
-        <v>0.02373819966325456</v>
+        <v>-0.01836849079776261</v>
       </c>
       <c r="E69">
-        <v>-4.677705560319718e-05</v>
+        <v>0.003418013077859864</v>
       </c>
       <c r="F69">
-        <v>0.008653658197599338</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0287148576551879</v>
+      </c>
+      <c r="G69">
+        <v>0.01006905197645152</v>
+      </c>
+      <c r="H69">
+        <v>0.0455665434812321</v>
+      </c>
+      <c r="I69">
+        <v>0.02642394746979978</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.06604360005610571</v>
+        <v>-0.09838112317247498</v>
       </c>
       <c r="C71">
-        <v>-0.1461807123772226</v>
+        <v>0.03707838232926678</v>
       </c>
       <c r="D71">
-        <v>-0.2257295356455411</v>
+        <v>0.2343654127694676</v>
       </c>
       <c r="E71">
-        <v>0.1958257101261181</v>
+        <v>0.08668821779540925</v>
       </c>
       <c r="F71">
-        <v>-0.01963970710636892</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.08520225776568081</v>
+      </c>
+      <c r="G71">
+        <v>-0.0293808400339235</v>
+      </c>
+      <c r="H71">
+        <v>0.02322284074651886</v>
+      </c>
+      <c r="I71">
+        <v>0.01758002132823212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1196415057657082</v>
+        <v>-0.1264520664781304</v>
       </c>
       <c r="C72">
-        <v>-0.07745419189039152</v>
+        <v>-0.04837256169522949</v>
       </c>
       <c r="D72">
-        <v>0.05536113602353063</v>
+        <v>-0.05557737519889709</v>
       </c>
       <c r="E72">
-        <v>-0.0346234697460265</v>
+        <v>0.003575134953645618</v>
       </c>
       <c r="F72">
-        <v>-0.0304820190453238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1068566721811257</v>
+      </c>
+      <c r="G72">
+        <v>-0.0927172523346436</v>
+      </c>
+      <c r="H72">
+        <v>-0.08011982810988294</v>
+      </c>
+      <c r="I72">
+        <v>0.02381883343550811</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2675821900859169</v>
+        <v>-0.2719334109318862</v>
       </c>
       <c r="C73">
-        <v>-0.1209869018237674</v>
+        <v>-0.0265223119156174</v>
       </c>
       <c r="D73">
-        <v>-0.02527161920919269</v>
+        <v>-0.01119118398022735</v>
       </c>
       <c r="E73">
-        <v>0.1234790551337335</v>
+        <v>0.09844756743385856</v>
       </c>
       <c r="F73">
-        <v>-0.2810007105650987</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.003512934753275261</v>
+      </c>
+      <c r="G73">
+        <v>-0.3014963416793044</v>
+      </c>
+      <c r="H73">
+        <v>-0.5240381425879956</v>
+      </c>
+      <c r="I73">
+        <v>0.02314503041853932</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1416075819644674</v>
+        <v>-0.1342918539600826</v>
       </c>
       <c r="C74">
-        <v>-0.0253631305841587</v>
+        <v>-0.04669767179470667</v>
       </c>
       <c r="D74">
-        <v>0.03992135349602034</v>
+        <v>-0.05118344577231671</v>
       </c>
       <c r="E74">
-        <v>-0.01865200075285117</v>
+        <v>-0.00168986985788605</v>
       </c>
       <c r="F74">
-        <v>0.07761210230993809</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05603726424578848</v>
+      </c>
+      <c r="G74">
+        <v>0.08641998531849912</v>
+      </c>
+      <c r="H74">
+        <v>-0.02075539240202983</v>
+      </c>
+      <c r="I74">
+        <v>0.003079266192377539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2223026574778885</v>
+        <v>-0.232343829356179</v>
       </c>
       <c r="C75">
-        <v>-0.08956477104543574</v>
+        <v>-0.08081509470039763</v>
       </c>
       <c r="D75">
-        <v>0.09090706413509049</v>
+        <v>-0.05647295183810191</v>
       </c>
       <c r="E75">
-        <v>-0.0248494991906893</v>
+        <v>0.02085915454172161</v>
       </c>
       <c r="F75">
-        <v>0.1608079927418201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1247732320937433</v>
+      </c>
+      <c r="G75">
+        <v>0.1534207105604314</v>
+      </c>
+      <c r="H75">
+        <v>0.0166835189607153</v>
+      </c>
+      <c r="I75">
+        <v>0.004006744938455035</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2478672947022449</v>
+        <v>-0.2371863765831854</v>
       </c>
       <c r="C76">
-        <v>-0.1026375570906354</v>
+        <v>-0.09441782277160039</v>
       </c>
       <c r="D76">
-        <v>0.03928470213224451</v>
+        <v>-0.04111536410059408</v>
       </c>
       <c r="E76">
-        <v>-0.08012077168088692</v>
+        <v>-0.01941345114095359</v>
       </c>
       <c r="F76">
-        <v>0.1596409273767096</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1390819543437054</v>
+      </c>
+      <c r="G76">
+        <v>0.2015778572207606</v>
+      </c>
+      <c r="H76">
+        <v>0.00185994414489592</v>
+      </c>
+      <c r="I76">
+        <v>-0.06656784246853445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1493009523536113</v>
+        <v>-0.1001436557318231</v>
       </c>
       <c r="C77">
-        <v>0.0329166159070467</v>
+        <v>-0.02049759904190846</v>
       </c>
       <c r="D77">
-        <v>0.0698692682680374</v>
+        <v>-0.08367501214124659</v>
       </c>
       <c r="E77">
-        <v>0.00539859689901479</v>
+        <v>-0.008631080233121599</v>
       </c>
       <c r="F77">
-        <v>-0.2183574560306008</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03429391486051832</v>
+      </c>
+      <c r="G77">
+        <v>-0.1497847571955021</v>
+      </c>
+      <c r="H77">
+        <v>0.2179574540346755</v>
+      </c>
+      <c r="I77">
+        <v>-0.0675818304092954</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08063201582413766</v>
+        <v>-0.05557223203699933</v>
       </c>
       <c r="C78">
-        <v>0.01970204395442803</v>
+        <v>-0.01859898897186946</v>
       </c>
       <c r="D78">
-        <v>0.07889213481115263</v>
+        <v>-0.06388823750563262</v>
       </c>
       <c r="E78">
-        <v>-0.04854134114755651</v>
+        <v>-0.01759385734227752</v>
       </c>
       <c r="F78">
-        <v>-0.04971576136133041</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03667758489455891</v>
+      </c>
+      <c r="G78">
+        <v>-0.06966372125209368</v>
+      </c>
+      <c r="H78">
+        <v>0.03269855977922695</v>
+      </c>
+      <c r="I78">
+        <v>0.01704638828058515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1450795020175959</v>
+        <v>-0.164214332195788</v>
       </c>
       <c r="C80">
-        <v>0.09855971750832647</v>
+        <v>-0.03724711515636162</v>
       </c>
       <c r="D80">
-        <v>-0.5481426306605304</v>
+        <v>0.2764584789734774</v>
       </c>
       <c r="E80">
-        <v>-0.7887376222923672</v>
+        <v>-0.9315594612944641</v>
       </c>
       <c r="F80">
-        <v>-0.109572470834119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02530555950395095</v>
+      </c>
+      <c r="G80">
+        <v>-0.07689686046165893</v>
+      </c>
+      <c r="H80">
+        <v>-0.02715978449141038</v>
+      </c>
+      <c r="I80">
+        <v>0.03455517955533571</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1678982608118988</v>
+        <v>-0.1746661512334857</v>
       </c>
       <c r="C81">
-        <v>-0.07114773912463952</v>
+        <v>-0.06169775166728012</v>
       </c>
       <c r="D81">
-        <v>0.0494390457940841</v>
+        <v>-0.03785460835647835</v>
       </c>
       <c r="E81">
-        <v>-0.0299102293807912</v>
+        <v>0.0006912127242445955</v>
       </c>
       <c r="F81">
-        <v>0.1448970192110821</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1009906487075357</v>
+      </c>
+      <c r="G81">
+        <v>0.1384581626716518</v>
+      </c>
+      <c r="H81">
+        <v>0.01588515098150515</v>
+      </c>
+      <c r="I81">
+        <v>-0.04777176814555781</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06317165685464689</v>
+        <v>-0.0483868561530973</v>
       </c>
       <c r="C83">
-        <v>0.04272870005452312</v>
+        <v>-0.01363489313122548</v>
       </c>
       <c r="D83">
-        <v>0.06527474759605473</v>
+        <v>-0.04752068294538804</v>
       </c>
       <c r="E83">
-        <v>-0.007254854789729231</v>
+        <v>-2.581001091440302e-05</v>
       </c>
       <c r="F83">
-        <v>-0.04633918110004705</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.009789709506565504</v>
+      </c>
+      <c r="G83">
+        <v>-0.05401923991343878</v>
+      </c>
+      <c r="H83">
+        <v>0.03052032888555816</v>
+      </c>
+      <c r="I83">
+        <v>0.02302540193158979</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2231062993672092</v>
+        <v>-0.2262695255013598</v>
       </c>
       <c r="C85">
-        <v>-0.04887329788269112</v>
+        <v>-0.07671889637694684</v>
       </c>
       <c r="D85">
-        <v>0.07501802182946474</v>
+        <v>-0.08616080043669869</v>
       </c>
       <c r="E85">
-        <v>-0.07000246398817116</v>
+        <v>-0.003157462859684647</v>
       </c>
       <c r="F85">
-        <v>0.201160684356919</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1199484970030895</v>
+      </c>
+      <c r="G85">
+        <v>0.19393812100385</v>
+      </c>
+      <c r="H85">
+        <v>0.01242690526360052</v>
+      </c>
+      <c r="I85">
+        <v>-0.02726503954106262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02194454052205546</v>
+        <v>-0.01665126320153728</v>
       </c>
       <c r="C86">
-        <v>0.01087231889526915</v>
+        <v>-0.006738820747498812</v>
       </c>
       <c r="D86">
-        <v>0.06427653708258295</v>
+        <v>-0.0420368799517025</v>
       </c>
       <c r="E86">
-        <v>-0.02342809970980483</v>
+        <v>-0.007816286958902819</v>
       </c>
       <c r="F86">
-        <v>-0.07491240584642454</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01333376965105923</v>
+      </c>
+      <c r="G86">
+        <v>-0.07737966910123058</v>
+      </c>
+      <c r="H86">
+        <v>0.05994398428797131</v>
+      </c>
+      <c r="I86">
+        <v>0.01156607272558943</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0160677398835191</v>
+        <v>-0.02473635322109442</v>
       </c>
       <c r="C87">
-        <v>-0.03507971647425579</v>
+        <v>0.0002147237108985164</v>
       </c>
       <c r="D87">
-        <v>-0.04100418480312462</v>
+        <v>0.00924044218750786</v>
       </c>
       <c r="E87">
-        <v>0.03339956766040309</v>
+        <v>0.001436460230900992</v>
       </c>
       <c r="F87">
-        <v>-0.1021095500129461</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.004531925004264996</v>
+      </c>
+      <c r="G87">
+        <v>-0.1053584568857072</v>
+      </c>
+      <c r="H87">
+        <v>0.004219662368023677</v>
+      </c>
+      <c r="I87">
+        <v>-0.01582607346797084</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0128370316558165</v>
+        <v>-0.03200061145291984</v>
       </c>
       <c r="C88">
-        <v>-0.01115263131613754</v>
+        <v>-0.006716586575673662</v>
       </c>
       <c r="D88">
-        <v>-0.004072043457747338</v>
+        <v>0.006976629118717712</v>
       </c>
       <c r="E88">
-        <v>-0.02005141758517587</v>
+        <v>-0.001834952261827815</v>
       </c>
       <c r="F88">
-        <v>0.002829425126165823</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01300531799476654</v>
+      </c>
+      <c r="G88">
+        <v>0.005814285420811519</v>
+      </c>
+      <c r="H88">
+        <v>0.02042568063698536</v>
+      </c>
+      <c r="I88">
+        <v>0.06014203678141288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.1027840857398969</v>
+        <v>-0.1651399330211754</v>
       </c>
       <c r="C89">
-        <v>-0.1436403810204959</v>
+        <v>0.06506400827175243</v>
       </c>
       <c r="D89">
-        <v>-0.2479983202114683</v>
+        <v>0.3387771249745946</v>
       </c>
       <c r="E89">
-        <v>0.2079153307338603</v>
+        <v>0.1465017123706696</v>
       </c>
       <c r="F89">
-        <v>0.001514732107277223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1091414250195557</v>
+      </c>
+      <c r="G89">
+        <v>-0.009210952288776046</v>
+      </c>
+      <c r="H89">
+        <v>0.100394975759748</v>
+      </c>
+      <c r="I89">
+        <v>-0.0007979085148146694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.08221805813570421</v>
+        <v>-0.1149385964951466</v>
       </c>
       <c r="C90">
-        <v>-0.1399272060968735</v>
+        <v>0.05214811035023409</v>
       </c>
       <c r="D90">
-        <v>-0.2532327457806064</v>
+        <v>0.2895846981761958</v>
       </c>
       <c r="E90">
-        <v>0.141427858540845</v>
+        <v>0.1038401338915351</v>
       </c>
       <c r="F90">
-        <v>-0.003030257413834563</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.09580675208832301</v>
+      </c>
+      <c r="G90">
+        <v>0.02268617937458843</v>
+      </c>
+      <c r="H90">
+        <v>0.06670703236259699</v>
+      </c>
+      <c r="I90">
+        <v>-0.001693754145217338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2819457446286202</v>
+        <v>-0.265494352595357</v>
       </c>
       <c r="C91">
-        <v>-0.05399252733056033</v>
+        <v>-0.09596293146897375</v>
       </c>
       <c r="D91">
-        <v>0.1012421472728231</v>
+        <v>-0.09853803752319201</v>
       </c>
       <c r="E91">
-        <v>-0.07084942705672855</v>
+        <v>0.0002651213057100032</v>
       </c>
       <c r="F91">
-        <v>0.2437228091184865</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1174522039255292</v>
+      </c>
+      <c r="G91">
+        <v>0.2537085366368205</v>
+      </c>
+      <c r="H91">
+        <v>0.03178605452386688</v>
+      </c>
+      <c r="I91">
+        <v>-0.06500908426453685</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1323617206721383</v>
+        <v>-0.1973625967547124</v>
       </c>
       <c r="C92">
-        <v>-0.1175631519147885</v>
+        <v>-0.01053114142014354</v>
       </c>
       <c r="D92">
-        <v>-0.2713330788212514</v>
+        <v>0.3070208257083593</v>
       </c>
       <c r="E92">
-        <v>0.1374532083773142</v>
+        <v>0.09517073958219371</v>
       </c>
       <c r="F92">
-        <v>0.02143999629254401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09488055679541926</v>
+      </c>
+      <c r="G92">
+        <v>0.08343976959932271</v>
+      </c>
+      <c r="H92">
+        <v>0.1835000392561996</v>
+      </c>
+      <c r="I92">
+        <v>-0.009510078512380161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.0871643092949697</v>
+        <v>-0.145055771679316</v>
       </c>
       <c r="C93">
-        <v>-0.14237328998139</v>
+        <v>0.05149118007662006</v>
       </c>
       <c r="D93">
-        <v>-0.3117045321475923</v>
+        <v>0.3468292037046365</v>
       </c>
       <c r="E93">
-        <v>0.1938709114517337</v>
+        <v>0.1353948639989989</v>
       </c>
       <c r="F93">
-        <v>0.04522755821675257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1473098246907398</v>
+      </c>
+      <c r="G93">
+        <v>0.02887441827502466</v>
+      </c>
+      <c r="H93">
+        <v>0.01397302605864683</v>
+      </c>
+      <c r="I93">
+        <v>0.02909941920375049</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2665075954498777</v>
+        <v>-0.2871651849329989</v>
       </c>
       <c r="C94">
-        <v>-0.1056332559886237</v>
+        <v>-0.07534846320267416</v>
       </c>
       <c r="D94">
-        <v>-0.00565718941068441</v>
+        <v>-0.02811871889763233</v>
       </c>
       <c r="E94">
-        <v>-0.01469313852600181</v>
+        <v>0.0381623941326693</v>
       </c>
       <c r="F94">
-        <v>0.2608191779702791</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1356164825381451</v>
+      </c>
+      <c r="G94">
+        <v>0.287333364431479</v>
+      </c>
+      <c r="H94">
+        <v>0.004399463070567078</v>
+      </c>
+      <c r="I94">
+        <v>-0.2166922164571311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1448901956490583</v>
+        <v>-0.1155249150033224</v>
       </c>
       <c r="C95">
-        <v>0.01135656844156243</v>
+        <v>-0.06360119277987893</v>
       </c>
       <c r="D95">
-        <v>0.1953928187619528</v>
+        <v>-0.09500915595099732</v>
       </c>
       <c r="E95">
-        <v>-0.05764772480827558</v>
+        <v>0.06236168597674657</v>
       </c>
       <c r="F95">
-        <v>0.3803848722688181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.04439495251843302</v>
+      </c>
+      <c r="G95">
+        <v>0.05402693586770875</v>
+      </c>
+      <c r="H95">
+        <v>0.170919631101341</v>
+      </c>
+      <c r="I95">
+        <v>0.8518324180220451</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1917006461224174</v>
+        <v>-0.2054864025035122</v>
       </c>
       <c r="C98">
-        <v>-0.05824230555463896</v>
+        <v>-0.04148232317160504</v>
       </c>
       <c r="D98">
-        <v>-0.01226664799792977</v>
+        <v>0.004222511103081463</v>
       </c>
       <c r="E98">
-        <v>0.1051201057459201</v>
+        <v>0.06980061125389658</v>
       </c>
       <c r="F98">
-        <v>-0.1460893098488249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01555931116863852</v>
+      </c>
+      <c r="G98">
+        <v>-0.2275515506558749</v>
+      </c>
+      <c r="H98">
+        <v>-0.3656848021721483</v>
+      </c>
+      <c r="I98">
+        <v>0.02648518278471022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.00217476194360643</v>
+        <v>-0.01501469292211692</v>
       </c>
       <c r="C101">
-        <v>-0.0136802765098874</v>
+        <v>-0.002669415086071528</v>
       </c>
       <c r="D101">
-        <v>0.06149530998228188</v>
+        <v>-0.02353848599618837</v>
       </c>
       <c r="E101">
-        <v>-0.04657876148296058</v>
+        <v>-0.009054138032402797</v>
       </c>
       <c r="F101">
-        <v>-0.03254301549060416</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04153829134382443</v>
+      </c>
+      <c r="G101">
+        <v>-0.07530870800975621</v>
+      </c>
+      <c r="H101">
+        <v>0.1189321056114331</v>
+      </c>
+      <c r="I101">
+        <v>-0.02826915685779934</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09185668750736126</v>
+        <v>-0.1113500742915088</v>
       </c>
       <c r="C102">
-        <v>-0.02050042065233249</v>
+        <v>-0.02536585518845328</v>
       </c>
       <c r="D102">
-        <v>0.04217692543692026</v>
+        <v>-0.03619919790410953</v>
       </c>
       <c r="E102">
-        <v>-0.05167284516092256</v>
+        <v>-0.00620221891645059</v>
       </c>
       <c r="F102">
-        <v>0.1119375021763474</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.05919880161298393</v>
+      </c>
+      <c r="G102">
+        <v>0.1134484502044214</v>
+      </c>
+      <c r="H102">
+        <v>0.006713696861186649</v>
+      </c>
+      <c r="I102">
+        <v>-0.007915171029378181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01603016424459734</v>
+        <v>-0.02367389166088174</v>
       </c>
       <c r="C103">
-        <v>-0.009277511940034552</v>
+        <v>-0.00786297337268908</v>
       </c>
       <c r="D103">
-        <v>0.003113485938854606</v>
+        <v>-0.005670360904005826</v>
       </c>
       <c r="E103">
-        <v>-0.008869787236427236</v>
+        <v>-0.009235318065366673</v>
       </c>
       <c r="F103">
-        <v>0.02519227095928592</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01658674452224436</v>
+      </c>
+      <c r="G103">
+        <v>0.01932745285655534</v>
+      </c>
+      <c r="H103">
+        <v>0.01635288261878504</v>
+      </c>
+      <c r="I103">
+        <v>0.001989590528457745</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1720711499552037</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.953746370899508</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1233977099713049</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.05123589301041193</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1755295259571793</v>
+      </c>
+      <c r="G104">
+        <v>0.03477377076314303</v>
+      </c>
+      <c r="H104">
+        <v>0.01400775891107703</v>
+      </c>
+      <c r="I104">
+        <v>0.006203732266963946</v>
       </c>
     </row>
   </sheetData>
